--- a/security/security/checklist/checklist_security-lab3.xlsx
+++ b/security/security/checklist/checklist_security-lab3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>Tên project</t>
   </si>
@@ -1908,9 +1908,9 @@
   <dimension ref="A1:AE898"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AA5" sqref="AA5"/>
+      <selection pane="bottomLeft" activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4351851851852" defaultRowHeight="15.75" customHeight="1"/>
@@ -2086,7 +2086,7 @@
       <c r="V5" s="13"/>
       <c r="W5" s="13"/>
       <c r="X5" s="18">
-        <v>45568</v>
+        <v>45361</v>
       </c>
       <c r="Y5" s="25" t="s">
         <v>24</v>
@@ -2131,8 +2131,12 @@
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
       <c r="W6" s="13"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="25"/>
+      <c r="X6" s="18">
+        <v>45361</v>
+      </c>
+      <c r="Y6" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="Z6" s="25" t="s">
         <v>25</v>
       </c>
@@ -2173,8 +2177,12 @@
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
       <c r="W7" s="13"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="25"/>
+      <c r="X7" s="18">
+        <v>45361</v>
+      </c>
+      <c r="Y7" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="Z7" s="25" t="s">
         <v>25</v>
       </c>
@@ -2215,8 +2223,12 @@
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
       <c r="W8" s="13"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="25"/>
+      <c r="X8" s="18">
+        <v>45361</v>
+      </c>
+      <c r="Y8" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="Z8" s="25" t="s">
         <v>25</v>
       </c>
@@ -2256,8 +2268,12 @@
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
       <c r="W9" s="13"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="25"/>
+      <c r="X9" s="18">
+        <v>45361</v>
+      </c>
+      <c r="Y9" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="Z9" s="25" t="s">
         <v>25</v>
       </c>
@@ -2298,8 +2314,12 @@
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="25"/>
+      <c r="X10" s="18">
+        <v>45361</v>
+      </c>
+      <c r="Y10" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="Z10" s="25" t="s">
         <v>25</v>
       </c>
@@ -2340,8 +2360,12 @@
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="25"/>
+      <c r="X11" s="18">
+        <v>45361</v>
+      </c>
+      <c r="Y11" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="Z11" s="25" t="s">
         <v>25</v>
       </c>
@@ -2382,8 +2406,12 @@
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="25"/>
+      <c r="X12" s="18">
+        <v>45361</v>
+      </c>
+      <c r="Y12" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="Z12" s="25" t="s">
         <v>25</v>
       </c>
@@ -2424,8 +2452,12 @@
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
       <c r="W13" s="13"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="25"/>
+      <c r="X13" s="18">
+        <v>45361</v>
+      </c>
+      <c r="Y13" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="Z13" s="25" t="s">
         <v>34</v>
       </c>

--- a/security/security/checklist/checklist_security-lab3.xlsx
+++ b/security/security/checklist/checklist_security-lab3.xlsx
@@ -121,6 +121,9 @@
     <t>Câu 2:
 - Màn hình update
 - Trên URL, ID có mã hóa</t>
+  </si>
+  <si>
+    <t>NG</t>
   </si>
   <si>
     <t>Câu 2:
@@ -487,9 +490,6 @@
 - Login bod, paste link đã copy =&gt; không thể thực hiện được
 - Login bod, click vào link delete của test =&gt; có thể thực hiện được</t>
   </si>
-  <si>
-    <t>NG</t>
-  </si>
 </sst>
 </file>
 
@@ -732,16 +732,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1908,9 +1908,9 @@
   <dimension ref="A1:AE898"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Y13" sqref="Y13"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8:W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4351851851852" defaultRowHeight="15.75" customHeight="1"/>
@@ -2010,7 +2010,7 @@
       <c r="AC3" s="23"/>
       <c r="AD3" s="24" t="str">
         <f>"Point: "&amp;SUM(AD5:AD13)</f>
-        <v>Point: 8</v>
+        <v>Point: 7</v>
       </c>
       <c r="AE3" s="20"/>
     </row>
@@ -2138,14 +2138,14 @@
         <v>24</v>
       </c>
       <c r="Z6" s="25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA6" s="25"/>
       <c r="AB6" s="25"/>
       <c r="AC6" s="25"/>
       <c r="AD6" s="26">
         <f>IF(Z6="OK",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="27"/>
     </row>
@@ -2155,7 +2155,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -2201,7 +2201,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -2246,7 +2246,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -2292,7 +2292,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -2338,7 +2338,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -2384,7 +2384,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -2430,7 +2430,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -2459,7 +2459,7 @@
         <v>24</v>
       </c>
       <c r="Z13" s="25" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AA13" s="25"/>
       <c r="AB13" s="25"/>
